--- a/Practica 5/Product Backlog 2.xlsx
+++ b/Practica 5/Product Backlog 2.xlsx
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,11 +535,16 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.4152777777777778</v>
+      </c>
       <c r="H2" t="s">
         <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.40138888888888885</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">

--- a/Practica 5/Product Backlog 2.xlsx
+++ b/Practica 5/Product Backlog 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Prioridad </t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>hora de comienzo</t>
+  </si>
+  <si>
+    <t>fin sprint</t>
   </si>
 </sst>
 </file>
@@ -489,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +566,15 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.43402777777777773</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -581,7 +592,9 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
@@ -640,7 +653,9 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0.42708333333333331</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -658,7 +673,9 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0.43194444444444446</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -677,7 +694,9 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0.43402777777777773</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -694,6 +713,9 @@
       </c>
       <c r="E10">
         <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">

--- a/Practica 5/Product Backlog 2.xlsx
+++ b/Practica 5/Product Backlog 2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\PSG\trunk\Practica 5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -140,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -482,29 +477,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="57.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -550,7 +545,7 @@
         <v>0.40138888888888885</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3">
         <v>97</v>
       </c>
@@ -576,7 +571,7 @@
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="75">
       <c r="A4">
         <v>92</v>
       </c>
@@ -599,7 +594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5">
         <v>86</v>
       </c>
@@ -619,7 +614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="75">
       <c r="A6">
         <v>85</v>
       </c>
@@ -637,7 +632,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45">
       <c r="A7">
         <v>84</v>
       </c>
@@ -657,7 +652,7 @@
         <v>0.42708333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8">
         <v>83</v>
       </c>
@@ -678,7 +673,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9">
         <v>82</v>
       </c>
@@ -698,7 +693,7 @@
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="60">
       <c r="A10">
         <v>81</v>
       </c>
@@ -709,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -718,7 +713,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="45">
       <c r="A11">
         <v>80</v>
       </c>
@@ -733,7 +728,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="60">
       <c r="A12">
         <v>79</v>
       </c>
@@ -748,7 +743,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30">
       <c r="A13">
         <v>78</v>
       </c>
@@ -763,7 +758,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14">
         <v>77</v>
       </c>
@@ -778,7 +773,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15">
         <v>76</v>
       </c>
